--- a/Crawling/music/crawled_data/live_flo/live_flo_20220510_110006.xlsx
+++ b/Crawling/music/crawled_data/live_flo/live_flo_20220510_110006.xlsx
@@ -34,7 +34,7 @@
     <t>앨범</t>
   </si>
   <si>
-    <t>flo</t>
+    <t>Flo</t>
   </si>
   <si>
     <t>2022-05-10</t>
@@ -2333,7 +2333,6 @@
         <v>144</v>
       </c>
       <c r="F66">
-        <f/>
         <v>0</v>
       </c>
     </row>
